--- a/biology/Botanique/Philippe_Eberhardt/Philippe_Eberhardt.xlsx
+++ b/biology/Botanique/Philippe_Eberhardt/Philippe_Eberhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Albert Eberhardt, né le 24 mai 1874 à Paris et décédé le 20 février 1942  est un botaniste français. Il partit avec sa femme Gabrielle en expédition en Indochine française, où il fut précepteur de l'empereur du protectorat français de l'Annam, Duy Tân, un temps remplacé par Léonard Aurousseau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Albert Eberhardt, né le 24 mai 1874 à Paris et décédé le 20 février 1942  est un botaniste français. Il partit avec sa femme Gabrielle en expédition en Indochine française, où il fut précepteur de l'empereur du protectorat français de l'Annam, Duy Tân, un temps remplacé par Léonard Aurousseau.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 24 mai 1874 à Paris.
-Il est docteur ès Sciences naturelles, préparateur au Laboratoire de botanique de la Sorbonne (en 1903), Chef du service des Affaires économiques au gouvernement général de l'Indochine et directeur de l'Institut et du jardin botanique de Besançon[2].
+Il est docteur ès Sciences naturelles, préparateur au Laboratoire de botanique de la Sorbonne (en 1903), Chef du service des Affaires économiques au gouvernement général de l'Indochine et directeur de l'Institut et du jardin botanique de Besançon.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
